--- a/simple.xlsx
+++ b/simple.xlsx
@@ -357,9 +357,12 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
@@ -368,10 +371,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1.9</v>
+      </c>
+      <c r="D3">
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -379,10 +385,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.8</v>
+      </c>
+      <c r="D4">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
